--- a/result/NCDC_weather_data/stations_imputed/56187099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/56187099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>2.109204</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>7.292648859116023</v>
+      </c>
       <c r="O2" t="n">
         <v>128.12</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,7 +629,9 @@
       <c r="M3" t="n">
         <v>2.31498</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>7.292648859116023</v>
+      </c>
       <c r="O3" t="n">
         <v>128.12</v>
       </c>
@@ -635,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -681,7 +689,9 @@
       <c r="M4" t="n">
         <v>1.594764</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>7.292648859116023</v>
+      </c>
       <c r="O4" t="n">
         <v>124.34</v>
       </c>
@@ -691,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -749,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -807,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -865,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -923,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -981,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1039,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1097,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1155,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1213,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1271,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1329,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1387,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1445,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1503,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1561,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1619,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1677,7 +1721,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1735,7 +1781,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1793,7 +1841,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1851,7 +1901,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1909,7 +1961,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1967,7 +2021,9 @@
       <c r="Q26" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2025,7 +2081,9 @@
       <c r="Q27" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2083,7 +2141,9 @@
       <c r="Q28" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2141,7 +2201,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2199,7 +2261,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2257,7 +2321,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2315,7 +2381,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2373,7 +2441,9 @@
       <c r="Q33" t="n">
         <v>0.004064</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2431,7 +2501,9 @@
       <c r="Q34" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2489,7 +2561,9 @@
       <c r="Q35" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2547,7 +2621,9 @@
       <c r="Q36" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2605,7 +2681,9 @@
       <c r="Q37" t="n">
         <v>0.003302</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2663,7 +2741,9 @@
       <c r="Q38" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2721,7 +2801,9 @@
       <c r="Q39" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2779,7 +2861,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2837,7 +2921,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2895,7 +2981,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2953,7 +3041,9 @@
       <c r="Q43" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3011,7 +3101,9 @@
       <c r="Q44" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3069,7 +3161,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3127,7 +3221,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3185,7 +3281,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3243,7 +3341,9 @@
       <c r="Q48" t="n">
         <v>0.004318</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3301,7 +3401,9 @@
       <c r="Q49" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3359,7 +3461,9 @@
       <c r="Q50" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3417,7 +3521,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3475,7 +3581,9 @@
       <c r="Q52" t="n">
         <v>0.004826</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3533,7 +3641,9 @@
       <c r="Q53" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3591,7 +3701,9 @@
       <c r="Q54" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3649,7 +3761,9 @@
       <c r="Q55" t="n">
         <v>0.00127</v>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3707,7 +3821,9 @@
       <c r="Q56" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3765,7 +3881,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3823,7 +3941,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3881,7 +4001,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3939,7 +4061,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3997,7 +4121,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4055,7 +4181,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4113,7 +4241,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4171,7 +4301,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4229,7 +4361,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4287,7 +4421,9 @@
       <c r="Q66" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4345,7 +4481,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4403,7 +4541,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4461,7 +4601,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4519,7 +4661,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4577,7 +4721,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4635,7 +4781,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4693,7 +4841,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4751,7 +4901,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4809,7 +4961,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4867,7 +5021,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4925,7 +5081,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4983,7 +5141,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5041,7 +5201,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5099,7 +5261,9 @@
       <c r="Q80" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5157,7 +5321,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5215,7 +5381,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5273,7 +5441,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5331,7 +5501,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5389,7 +5561,9 @@
       <c r="Q85" t="n">
         <v>0.003302</v>
       </c>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5447,7 +5621,9 @@
       <c r="Q86" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5505,7 +5681,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5563,7 +5741,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5621,7 +5801,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5679,7 +5861,9 @@
       <c r="Q90" t="n">
         <v>0.0127</v>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5737,7 +5921,9 @@
       <c r="Q91" t="n">
         <v>0.00254</v>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5795,7 +5981,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5853,7 +6041,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5911,7 +6101,9 @@
       <c r="Q94" t="n">
         <v>0.004572</v>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5969,7 +6161,9 @@
       <c r="Q95" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6027,7 +6221,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6085,7 +6281,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6143,7 +6341,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6201,7 +6401,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
-      <c r="R99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6259,7 +6461,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
-      <c r="R100" t="inlineStr"/>
+      <c r="R100" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6317,7 +6521,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6375,7 +6581,9 @@
       <c r="Q102" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6433,7 +6641,9 @@
       <c r="Q103" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6491,7 +6701,9 @@
       <c r="Q104" t="n">
         <v>0.002794</v>
       </c>
-      <c r="R104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6549,7 +6761,9 @@
       <c r="Q105" t="n">
         <v>0.027178</v>
       </c>
-      <c r="R105" t="inlineStr"/>
+      <c r="R105" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6607,7 +6821,9 @@
       <c r="Q106" t="n">
         <v>0.015494</v>
       </c>
-      <c r="R106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6665,7 +6881,9 @@
       <c r="Q107" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6723,7 +6941,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
-      <c r="R108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6781,7 +7001,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6839,7 +7061,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6897,7 +7121,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6955,7 +7181,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
-      <c r="R112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7013,7 +7241,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7071,7 +7301,9 @@
       <c r="Q114" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7129,7 +7361,9 @@
       <c r="Q115" t="n">
         <v>0.003302</v>
       </c>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7187,7 +7421,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7245,7 +7481,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7303,7 +7541,9 @@
       <c r="Q118" t="n">
         <v>0.045466</v>
       </c>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7361,7 +7601,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
-      <c r="R119" t="inlineStr"/>
+      <c r="R119" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7419,7 +7661,9 @@
       <c r="Q120" t="n">
         <v>0.009398</v>
       </c>
-      <c r="R120" t="inlineStr"/>
+      <c r="R120" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7477,7 +7721,9 @@
       <c r="Q121" t="n">
         <v>0.007112</v>
       </c>
-      <c r="R121" t="inlineStr"/>
+      <c r="R121" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7535,7 +7781,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
-      <c r="R122" t="inlineStr"/>
+      <c r="R122" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7593,7 +7841,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
-      <c r="R123" t="inlineStr"/>
+      <c r="R123" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7651,7 +7901,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
-      <c r="R124" t="inlineStr"/>
+      <c r="R124" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7709,7 +7961,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
-      <c r="R125" t="inlineStr"/>
+      <c r="R125" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7767,7 +8021,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
-      <c r="R126" t="inlineStr"/>
+      <c r="R126" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7825,7 +8081,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
-      <c r="R127" t="inlineStr"/>
+      <c r="R127" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7883,7 +8141,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
-      <c r="R128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7941,7 +8201,9 @@
       <c r="Q129" t="n">
         <v>0.031496</v>
       </c>
-      <c r="R129" t="inlineStr"/>
+      <c r="R129" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7999,7 +8261,9 @@
       <c r="Q130" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R130" t="inlineStr"/>
+      <c r="R130" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8057,7 +8321,9 @@
       <c r="Q131" t="n">
         <v>0.006604</v>
       </c>
-      <c r="R131" t="inlineStr"/>
+      <c r="R131" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8115,7 +8381,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
-      <c r="R132" t="inlineStr"/>
+      <c r="R132" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8173,7 +8441,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8231,7 +8501,9 @@
       <c r="Q134" t="n">
         <v>0.066548</v>
       </c>
-      <c r="R134" t="inlineStr"/>
+      <c r="R134" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8289,7 +8561,9 @@
       <c r="Q135" t="n">
         <v>0.004572</v>
       </c>
-      <c r="R135" t="inlineStr"/>
+      <c r="R135" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8347,7 +8621,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8405,7 +8681,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
-      <c r="R137" t="inlineStr"/>
+      <c r="R137" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8463,7 +8741,9 @@
       <c r="Q138" t="n">
         <v>0.011684</v>
       </c>
-      <c r="R138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8521,7 +8801,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
-      <c r="R139" t="inlineStr"/>
+      <c r="R139" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8579,7 +8861,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8637,7 +8921,9 @@
       <c r="Q141" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8695,7 +8981,9 @@
       <c r="Q142" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8753,7 +9041,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
-      <c r="R143" t="inlineStr"/>
+      <c r="R143" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8811,7 +9101,9 @@
       <c r="Q144" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R144" t="inlineStr"/>
+      <c r="R144" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8869,7 +9161,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8927,7 +9221,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8985,7 +9281,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9043,7 +9341,9 @@
       <c r="Q148" t="n">
         <v>0.004318</v>
       </c>
-      <c r="R148" t="inlineStr"/>
+      <c r="R148" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9101,7 +9401,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9159,7 +9461,9 @@
       <c r="Q150" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R150" t="inlineStr"/>
+      <c r="R150" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9217,7 +9521,9 @@
       <c r="Q151" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R151" t="inlineStr"/>
+      <c r="R151" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9275,7 +9581,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9333,7 +9641,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9391,7 +9701,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
-      <c r="R154" t="inlineStr"/>
+      <c r="R154" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9449,7 +9761,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
-      <c r="R155" t="inlineStr"/>
+      <c r="R155" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9507,7 +9821,9 @@
       <c r="Q156" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R156" t="inlineStr"/>
+      <c r="R156" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9565,7 +9881,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
-      <c r="R157" t="inlineStr"/>
+      <c r="R157" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9623,7 +9941,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
-      <c r="R158" t="inlineStr"/>
+      <c r="R158" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9681,7 +10001,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
-      <c r="R159" t="inlineStr"/>
+      <c r="R159" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9739,7 +10061,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
-      <c r="R160" t="inlineStr"/>
+      <c r="R160" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9797,7 +10121,9 @@
       <c r="Q161" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R161" t="inlineStr"/>
+      <c r="R161" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9855,7 +10181,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
-      <c r="R162" t="inlineStr"/>
+      <c r="R162" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9913,7 +10241,9 @@
       <c r="Q163" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R163" t="inlineStr"/>
+      <c r="R163" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9971,7 +10301,9 @@
       <c r="Q164" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R164" t="inlineStr"/>
+      <c r="R164" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10029,7 +10361,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
-      <c r="R165" t="inlineStr"/>
+      <c r="R165" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10087,7 +10421,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
-      <c r="R166" t="inlineStr"/>
+      <c r="R166" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10145,7 +10481,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
-      <c r="R167" t="inlineStr"/>
+      <c r="R167" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10203,7 +10541,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
-      <c r="R168" t="inlineStr"/>
+      <c r="R168" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10261,7 +10601,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
-      <c r="R169" t="inlineStr"/>
+      <c r="R169" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10319,7 +10661,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
-      <c r="R170" t="inlineStr"/>
+      <c r="R170" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10377,7 +10721,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
-      <c r="R171" t="inlineStr"/>
+      <c r="R171" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10435,7 +10781,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
-      <c r="R172" t="inlineStr"/>
+      <c r="R172" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10493,7 +10841,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
-      <c r="R173" t="inlineStr"/>
+      <c r="R173" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10551,7 +10901,9 @@
       <c r="Q174" t="n">
         <v>0.026162</v>
       </c>
-      <c r="R174" t="inlineStr"/>
+      <c r="R174" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10609,7 +10961,9 @@
       <c r="Q175" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R175" t="inlineStr"/>
+      <c r="R175" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10667,7 +11021,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
-      <c r="R176" t="inlineStr"/>
+      <c r="R176" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -10725,7 +11081,9 @@
       <c r="Q177" t="n">
         <v>0.00508</v>
       </c>
-      <c r="R177" t="inlineStr"/>
+      <c r="R177" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -10783,7 +11141,9 @@
       <c r="Q178" t="n">
         <v>0.052832</v>
       </c>
-      <c r="R178" t="inlineStr"/>
+      <c r="R178" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -10841,7 +11201,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
-      <c r="R179" t="inlineStr"/>
+      <c r="R179" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10899,7 +11261,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10957,7 +11321,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
-      <c r="R181" t="inlineStr"/>
+      <c r="R181" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -11015,7 +11381,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
-      <c r="R182" t="inlineStr"/>
+      <c r="R182" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11073,7 +11441,9 @@
       <c r="Q183" t="n">
         <v>0.009398</v>
       </c>
-      <c r="R183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -11131,7 +11501,9 @@
       <c r="Q184" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -11189,7 +11561,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11247,7 +11621,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
-      <c r="R186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11305,7 +11681,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11363,7 +11741,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
-      <c r="R188" t="inlineStr"/>
+      <c r="R188" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11421,7 +11801,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
-      <c r="R189" t="inlineStr"/>
+      <c r="R189" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11479,7 +11861,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
-      <c r="R190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11537,7 +11921,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
-      <c r="R191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11595,7 +11981,9 @@
       <c r="Q192" t="n">
         <v>0.004064</v>
       </c>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -11653,7 +12041,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -11711,7 +12101,9 @@
       <c r="Q194" t="n">
         <v>0.004064</v>
       </c>
-      <c r="R194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -11769,7 +12161,9 @@
       <c r="Q195" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R195" t="inlineStr"/>
+      <c r="R195" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -11827,7 +12221,9 @@
       <c r="Q196" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R196" t="inlineStr"/>
+      <c r="R196" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -11885,7 +12281,9 @@
       <c r="Q197" t="n">
         <v>0.02286</v>
       </c>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -11943,7 +12341,9 @@
       <c r="Q198" t="n">
         <v>0.01778</v>
       </c>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -12001,7 +12401,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
-      <c r="R199" t="inlineStr"/>
+      <c r="R199" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12059,7 +12461,9 @@
       <c r="Q200" t="n">
         <v>0.00254</v>
       </c>
-      <c r="R200" t="inlineStr"/>
+      <c r="R200" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -12117,7 +12521,9 @@
       <c r="Q201" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R201" t="inlineStr"/>
+      <c r="R201" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12175,7 +12581,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
-      <c r="R202" t="inlineStr"/>
+      <c r="R202" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12233,7 +12641,9 @@
       <c r="Q203" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R203" t="inlineStr"/>
+      <c r="R203" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12291,7 +12701,9 @@
       <c r="Q204" t="n">
         <v>0.005588</v>
       </c>
-      <c r="R204" t="inlineStr"/>
+      <c r="R204" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12349,7 +12761,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
-      <c r="R205" t="inlineStr"/>
+      <c r="R205" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12407,7 +12821,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
-      <c r="R206" t="inlineStr"/>
+      <c r="R206" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12465,7 +12881,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12523,7 +12941,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
-      <c r="R208" t="inlineStr"/>
+      <c r="R208" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12581,7 +13001,9 @@
       <c r="Q209" t="n">
         <v>0.07899399999999999</v>
       </c>
-      <c r="R209" t="inlineStr"/>
+      <c r="R209" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -12639,7 +13061,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
-      <c r="R210" t="inlineStr"/>
+      <c r="R210" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -12697,7 +13121,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
-      <c r="R211" t="inlineStr"/>
+      <c r="R211" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -12755,7 +13181,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
-      <c r="R212" t="inlineStr"/>
+      <c r="R212" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -12813,7 +13241,9 @@
       <c r="Q213" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R213" t="inlineStr"/>
+      <c r="R213" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -12871,7 +13301,9 @@
       <c r="Q214" t="n">
         <v>0.010668</v>
       </c>
-      <c r="R214" t="inlineStr"/>
+      <c r="R214" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -12929,7 +13361,9 @@
       <c r="Q215" t="n">
         <v>0.031496</v>
       </c>
-      <c r="R215" t="inlineStr"/>
+      <c r="R215" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -12987,7 +13421,9 @@
       <c r="Q216" t="n">
         <v>0.07365999999999999</v>
       </c>
-      <c r="R216" t="inlineStr"/>
+      <c r="R216" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -13045,7 +13481,9 @@
       <c r="Q217" t="n">
         <v>0.04191</v>
       </c>
-      <c r="R217" t="inlineStr"/>
+      <c r="R217" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -13103,7 +13541,9 @@
       <c r="Q218" t="n">
         <v>0.03175</v>
       </c>
-      <c r="R218" t="inlineStr"/>
+      <c r="R218" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -13161,7 +13601,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
-      <c r="R219" t="inlineStr"/>
+      <c r="R219" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -13219,7 +13661,9 @@
       <c r="Q220" t="n">
         <v>0.027178</v>
       </c>
-      <c r="R220" t="inlineStr"/>
+      <c r="R220" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13277,7 +13721,9 @@
       <c r="Q221" t="n">
         <v>0.007873999999999999</v>
       </c>
-      <c r="R221" t="inlineStr"/>
+      <c r="R221" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13335,7 +13781,9 @@
       <c r="Q222" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R222" t="inlineStr"/>
+      <c r="R222" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13393,7 +13841,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
-      <c r="R223" t="inlineStr"/>
+      <c r="R223" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13451,7 +13901,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
-      <c r="R224" t="inlineStr"/>
+      <c r="R224" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13509,7 +13961,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
-      <c r="R225" t="inlineStr"/>
+      <c r="R225" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13567,7 +14021,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
-      <c r="R226" t="inlineStr"/>
+      <c r="R226" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -13625,7 +14081,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
-      <c r="R227" t="inlineStr"/>
+      <c r="R227" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -13683,7 +14141,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
-      <c r="R228" t="inlineStr"/>
+      <c r="R228" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -13741,7 +14201,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
-      <c r="R229" t="inlineStr"/>
+      <c r="R229" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -13799,7 +14261,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
-      <c r="R230" t="inlineStr"/>
+      <c r="R230" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -13857,7 +14321,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
-      <c r="R231" t="inlineStr"/>
+      <c r="R231" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -13915,7 +14381,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
-      <c r="R232" t="inlineStr"/>
+      <c r="R232" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -13973,7 +14441,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
-      <c r="R233" t="inlineStr"/>
+      <c r="R233" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -14031,7 +14501,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
-      <c r="R234" t="inlineStr"/>
+      <c r="R234" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -14089,7 +14561,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
-      <c r="R235" t="inlineStr"/>
+      <c r="R235" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -14147,7 +14621,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
-      <c r="R236" t="inlineStr"/>
+      <c r="R236" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -14205,7 +14681,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
-      <c r="R237" t="inlineStr"/>
+      <c r="R237" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14263,7 +14741,9 @@
       <c r="Q238" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R238" t="inlineStr"/>
+      <c r="R238" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -14321,7 +14801,9 @@
       <c r="Q239" t="n">
         <v>0.002794</v>
       </c>
-      <c r="R239" t="inlineStr"/>
+      <c r="R239" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14379,7 +14861,9 @@
       <c r="Q240" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R240" t="inlineStr"/>
+      <c r="R240" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14437,7 +14921,9 @@
       <c r="Q241" t="n">
         <v>0.014478</v>
       </c>
-      <c r="R241" t="inlineStr"/>
+      <c r="R241" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14495,7 +14981,9 @@
       <c r="Q242" t="n">
         <v>0.01016</v>
       </c>
-      <c r="R242" t="inlineStr"/>
+      <c r="R242" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -14553,7 +15041,9 @@
       <c r="Q243" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R243" t="inlineStr"/>
+      <c r="R243" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -14611,7 +15101,9 @@
       <c r="Q244" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R244" t="inlineStr"/>
+      <c r="R244" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -14669,7 +15161,9 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
-      <c r="R245" t="inlineStr"/>
+      <c r="R245" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -14727,7 +15221,9 @@
       <c r="Q246" t="n">
         <v>0.002794</v>
       </c>
-      <c r="R246" t="inlineStr"/>
+      <c r="R246" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -14785,7 +15281,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
-      <c r="R247" t="inlineStr"/>
+      <c r="R247" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -14843,7 +15341,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
-      <c r="R248" t="inlineStr"/>
+      <c r="R248" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -14901,7 +15401,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
-      <c r="R249" t="inlineStr"/>
+      <c r="R249" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -14959,7 +15461,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
-      <c r="R250" t="inlineStr"/>
+      <c r="R250" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -15017,7 +15521,9 @@
       <c r="Q251" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R251" t="inlineStr"/>
+      <c r="R251" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -15075,7 +15581,9 @@
       <c r="Q252" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R252" t="inlineStr"/>
+      <c r="R252" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -15133,7 +15641,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
-      <c r="R253" t="inlineStr"/>
+      <c r="R253" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -15191,7 +15701,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
-      <c r="R254" t="inlineStr"/>
+      <c r="R254" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -15249,7 +15761,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
-      <c r="R255" t="inlineStr"/>
+      <c r="R255" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -15307,7 +15821,9 @@
       <c r="Q256" t="n">
         <v>0.004572</v>
       </c>
-      <c r="R256" t="inlineStr"/>
+      <c r="R256" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15365,7 +15881,9 @@
       <c r="Q257" t="n">
         <v>0.04927599999999999</v>
       </c>
-      <c r="R257" t="inlineStr"/>
+      <c r="R257" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15423,7 +15941,9 @@
       <c r="Q258" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R258" t="inlineStr"/>
+      <c r="R258" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15481,7 +16001,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
-      <c r="R259" t="inlineStr"/>
+      <c r="R259" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -15539,7 +16061,9 @@
       <c r="Q260" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R260" t="inlineStr"/>
+      <c r="R260" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -15597,7 +16121,9 @@
       <c r="Q261" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R261" t="inlineStr"/>
+      <c r="R261" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -15655,7 +16181,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
-      <c r="R262" t="inlineStr"/>
+      <c r="R262" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -15713,7 +16241,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
-      <c r="R263" t="inlineStr"/>
+      <c r="R263" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -15771,7 +16301,9 @@
       <c r="Q264" t="n">
         <v>0.003302</v>
       </c>
-      <c r="R264" t="inlineStr"/>
+      <c r="R264" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -15829,7 +16361,9 @@
       <c r="Q265" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R265" t="inlineStr"/>
+      <c r="R265" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -15887,7 +16421,9 @@
       <c r="Q266" t="n">
         <v>0.02413</v>
       </c>
-      <c r="R266" t="inlineStr"/>
+      <c r="R266" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -15945,7 +16481,9 @@
       <c r="Q267" t="n">
         <v>0.002286</v>
       </c>
-      <c r="R267" t="inlineStr"/>
+      <c r="R267" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -16003,7 +16541,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
-      <c r="R268" t="inlineStr"/>
+      <c r="R268" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -16061,7 +16601,9 @@
       <c r="Q269" t="n">
         <v>0.003048</v>
       </c>
-      <c r="R269" t="inlineStr"/>
+      <c r="R269" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -16119,7 +16661,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
-      <c r="R270" t="inlineStr"/>
+      <c r="R270" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -16177,7 +16721,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
-      <c r="R271" t="inlineStr"/>
+      <c r="R271" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -16235,7 +16781,9 @@
       <c r="Q272" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R272" t="inlineStr"/>
+      <c r="R272" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -16293,7 +16841,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
-      <c r="R273" t="inlineStr"/>
+      <c r="R273" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -16351,7 +16901,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
-      <c r="R274" t="inlineStr"/>
+      <c r="R274" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -16409,7 +16961,9 @@
       <c r="Q275" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R275" t="inlineStr"/>
+      <c r="R275" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -16467,7 +17021,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
-      <c r="R276" t="inlineStr"/>
+      <c r="R276" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -16525,7 +17081,9 @@
       <c r="Q277" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R277" t="inlineStr"/>
+      <c r="R277" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -16583,7 +17141,9 @@
       <c r="Q278" t="n">
         <v>0.009906</v>
       </c>
-      <c r="R278" t="inlineStr"/>
+      <c r="R278" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -16641,7 +17201,9 @@
       <c r="Q279" t="n">
         <v>0.00254</v>
       </c>
-      <c r="R279" t="inlineStr"/>
+      <c r="R279" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -16699,7 +17261,9 @@
       <c r="Q280" t="n">
         <v>0.008889999999999999</v>
       </c>
-      <c r="R280" t="inlineStr"/>
+      <c r="R280" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -16757,7 +17321,9 @@
       <c r="Q281" t="n">
         <v>0.005333999999999999</v>
       </c>
-      <c r="R281" t="inlineStr"/>
+      <c r="R281" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -16815,7 +17381,9 @@
       <c r="Q282" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R282" t="inlineStr"/>
+      <c r="R282" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -16873,7 +17441,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
-      <c r="R283" t="inlineStr"/>
+      <c r="R283" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -16931,7 +17501,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
-      <c r="R284" t="inlineStr"/>
+      <c r="R284" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -16989,7 +17561,9 @@
       <c r="Q285" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R285" t="inlineStr"/>
+      <c r="R285" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -17047,7 +17621,9 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
-      <c r="R286" t="inlineStr"/>
+      <c r="R286" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -17105,7 +17681,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
-      <c r="R287" t="inlineStr"/>
+      <c r="R287" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -17163,7 +17741,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
-      <c r="R288" t="inlineStr"/>
+      <c r="R288" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -17221,7 +17801,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
-      <c r="R289" t="inlineStr"/>
+      <c r="R289" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -17279,7 +17861,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
-      <c r="R290" t="inlineStr"/>
+      <c r="R290" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -17337,7 +17921,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
-      <c r="R291" t="inlineStr"/>
+      <c r="R291" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -17395,7 +17981,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
-      <c r="R292" t="inlineStr"/>
+      <c r="R292" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -17453,7 +18041,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
-      <c r="R293" t="inlineStr"/>
+      <c r="R293" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -17511,7 +18101,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
-      <c r="R294" t="inlineStr"/>
+      <c r="R294" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -17569,7 +18161,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
-      <c r="R295" t="inlineStr"/>
+      <c r="R295" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -17627,7 +18221,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
-      <c r="R296" t="inlineStr"/>
+      <c r="R296" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -17685,7 +18281,9 @@
       <c r="Q297" t="n">
         <v>0.008636</v>
       </c>
-      <c r="R297" t="inlineStr"/>
+      <c r="R297" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -17743,7 +18341,9 @@
       <c r="Q298" t="n">
         <v>0.00254</v>
       </c>
-      <c r="R298" t="inlineStr"/>
+      <c r="R298" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -17801,7 +18401,9 @@
       <c r="Q299" t="n">
         <v>0.00127</v>
       </c>
-      <c r="R299" t="inlineStr"/>
+      <c r="R299" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -17859,7 +18461,9 @@
       <c r="Q300" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R300" t="inlineStr"/>
+      <c r="R300" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -17917,7 +18521,9 @@
       <c r="Q301" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R301" t="inlineStr"/>
+      <c r="R301" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -17975,7 +18581,9 @@
       <c r="Q302" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R302" t="inlineStr"/>
+      <c r="R302" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -18033,7 +18641,9 @@
       <c r="Q303" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R303" t="inlineStr"/>
+      <c r="R303" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -18091,7 +18701,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
-      <c r="R304" t="inlineStr"/>
+      <c r="R304" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -18149,7 +18761,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
-      <c r="R305" t="inlineStr"/>
+      <c r="R305" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -18207,7 +18821,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
-      <c r="R306" t="inlineStr"/>
+      <c r="R306" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -18265,7 +18881,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
-      <c r="R307" t="inlineStr"/>
+      <c r="R307" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -18323,7 +18941,9 @@
       <c r="Q308" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R308" t="inlineStr"/>
+      <c r="R308" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -18381,7 +19001,9 @@
       <c r="Q309" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R309" t="inlineStr"/>
+      <c r="R309" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -18439,7 +19061,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
-      <c r="R310" t="inlineStr"/>
+      <c r="R310" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -18497,7 +19121,9 @@
       <c r="Q311" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R311" t="inlineStr"/>
+      <c r="R311" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -18555,7 +19181,9 @@
       <c r="Q312" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R312" t="inlineStr"/>
+      <c r="R312" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -18613,7 +19241,9 @@
       <c r="Q313" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R313" t="inlineStr"/>
+      <c r="R313" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -18671,7 +19301,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
-      <c r="R314" t="inlineStr"/>
+      <c r="R314" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -18729,7 +19361,9 @@
       <c r="Q315" t="n">
         <v>0.005588</v>
       </c>
-      <c r="R315" t="inlineStr"/>
+      <c r="R315" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -18787,7 +19421,9 @@
       <c r="Q316" t="n">
         <v>0.00508</v>
       </c>
-      <c r="R316" t="inlineStr"/>
+      <c r="R316" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -18845,7 +19481,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
-      <c r="R317" t="inlineStr"/>
+      <c r="R317" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -18903,7 +19541,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
-      <c r="R318" t="inlineStr"/>
+      <c r="R318" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -18961,7 +19601,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
-      <c r="R319" t="inlineStr"/>
+      <c r="R319" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -19019,7 +19661,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
-      <c r="R320" t="inlineStr"/>
+      <c r="R320" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -19077,7 +19721,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
-      <c r="R321" t="inlineStr"/>
+      <c r="R321" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -19135,7 +19781,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
-      <c r="R322" t="inlineStr"/>
+      <c r="R322" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -19193,7 +19841,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
-      <c r="R323" t="inlineStr"/>
+      <c r="R323" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -19251,7 +19901,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
-      <c r="R324" t="inlineStr"/>
+      <c r="R324" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -19309,7 +19961,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
-      <c r="R325" t="inlineStr"/>
+      <c r="R325" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -19367,7 +20021,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
-      <c r="R326" t="inlineStr"/>
+      <c r="R326" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -19425,7 +20081,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
-      <c r="R327" t="inlineStr"/>
+      <c r="R327" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -19483,7 +20141,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
-      <c r="R328" t="inlineStr"/>
+      <c r="R328" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -19541,7 +20201,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
-      <c r="R329" t="inlineStr"/>
+      <c r="R329" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -19599,7 +20261,9 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
-      <c r="R330" t="inlineStr"/>
+      <c r="R330" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -19657,7 +20321,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
-      <c r="R331" t="inlineStr"/>
+      <c r="R331" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -19715,7 +20381,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
-      <c r="R332" t="inlineStr"/>
+      <c r="R332" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -19773,7 +20441,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
-      <c r="R333" t="inlineStr"/>
+      <c r="R333" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -19831,7 +20501,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
-      <c r="R334" t="inlineStr"/>
+      <c r="R334" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -19889,7 +20561,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
-      <c r="R335" t="inlineStr"/>
+      <c r="R335" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -19947,7 +20621,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
-      <c r="R336" t="inlineStr"/>
+      <c r="R336" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -20005,7 +20681,9 @@
       <c r="Q337" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R337" t="inlineStr"/>
+      <c r="R337" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -20063,7 +20741,9 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
-      <c r="R338" t="inlineStr"/>
+      <c r="R338" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -20121,7 +20801,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
-      <c r="R339" t="inlineStr"/>
+      <c r="R339" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -20179,7 +20861,9 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
-      <c r="R340" t="inlineStr"/>
+      <c r="R340" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -20237,7 +20921,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
-      <c r="R341" t="inlineStr"/>
+      <c r="R341" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -20295,7 +20981,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
-      <c r="R342" t="inlineStr"/>
+      <c r="R342" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -20353,7 +21041,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
-      <c r="R343" t="inlineStr"/>
+      <c r="R343" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -20411,7 +21101,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
-      <c r="R344" t="inlineStr"/>
+      <c r="R344" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -20469,7 +21161,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
-      <c r="R345" t="inlineStr"/>
+      <c r="R345" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -20527,7 +21221,9 @@
       <c r="Q346" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R346" t="inlineStr"/>
+      <c r="R346" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -20585,7 +21281,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
-      <c r="R347" t="inlineStr"/>
+      <c r="R347" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -20643,7 +21341,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
-      <c r="R348" t="inlineStr"/>
+      <c r="R348" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -20701,7 +21401,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
-      <c r="R349" t="inlineStr"/>
+      <c r="R349" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -20759,7 +21461,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
-      <c r="R350" t="inlineStr"/>
+      <c r="R350" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -20817,7 +21521,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
-      <c r="R351" t="inlineStr"/>
+      <c r="R351" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -20875,7 +21581,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
-      <c r="R352" t="inlineStr"/>
+      <c r="R352" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -20933,7 +21641,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
-      <c r="R353" t="inlineStr"/>
+      <c r="R353" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -20991,7 +21701,9 @@
       <c r="Q354" t="n">
         <v>0</v>
       </c>
-      <c r="R354" t="inlineStr"/>
+      <c r="R354" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -21049,7 +21761,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
-      <c r="R355" t="inlineStr"/>
+      <c r="R355" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -21107,7 +21821,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
-      <c r="R356" t="inlineStr"/>
+      <c r="R356" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -21165,7 +21881,9 @@
       <c r="Q357" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R357" t="inlineStr"/>
+      <c r="R357" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -21223,7 +21941,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
-      <c r="R358" t="inlineStr"/>
+      <c r="R358" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -21281,7 +22001,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
-      <c r="R359" t="inlineStr"/>
+      <c r="R359" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -21339,7 +22061,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
-      <c r="R360" t="inlineStr"/>
+      <c r="R360" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -21397,7 +22121,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
-      <c r="R361" t="inlineStr"/>
+      <c r="R361" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -21455,7 +22181,9 @@
       <c r="Q362" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R362" t="inlineStr"/>
+      <c r="R362" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -21513,7 +22241,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
-      <c r="R363" t="inlineStr"/>
+      <c r="R363" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -21571,7 +22301,9 @@
       <c r="Q364" t="n">
         <v>0</v>
       </c>
-      <c r="R364" t="inlineStr"/>
+      <c r="R364" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -21629,7 +22361,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
-      <c r="R365" t="inlineStr"/>
+      <c r="R365" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -21687,7 +22421,9 @@
       <c r="Q366" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R366" t="inlineStr"/>
+      <c r="R366" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -21745,7 +22481,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
-      <c r="R367" t="inlineStr"/>
+      <c r="R367" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -21803,7 +22541,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
-      <c r="R368" t="inlineStr"/>
+      <c r="R368" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -21861,7 +22601,9 @@
       <c r="Q369" t="n">
         <v>0</v>
       </c>
-      <c r="R369" t="inlineStr"/>
+      <c r="R369" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -21919,7 +22661,9 @@
       <c r="Q370" t="n">
         <v>0</v>
       </c>
-      <c r="R370" t="inlineStr"/>
+      <c r="R370" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -21977,7 +22721,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
-      <c r="R371" t="inlineStr"/>
+      <c r="R371" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -22035,7 +22781,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
-      <c r="R372" t="inlineStr"/>
+      <c r="R372" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -22093,7 +22841,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
-      <c r="R373" t="inlineStr"/>
+      <c r="R373" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -22151,7 +22901,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
-      <c r="R374" t="inlineStr"/>
+      <c r="R374" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -22209,7 +22961,9 @@
       <c r="Q375" t="n">
         <v>8.466666666666666e-05</v>
       </c>
-      <c r="R375" t="inlineStr"/>
+      <c r="R375" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -22267,7 +23021,9 @@
       <c r="Q376" t="n">
         <v>0.0001693333333333333</v>
       </c>
-      <c r="R376" t="inlineStr"/>
+      <c r="R376" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -22325,7 +23081,9 @@
       <c r="Q377" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R377" t="inlineStr"/>
+      <c r="R377" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -22383,7 +23141,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
-      <c r="R378" t="inlineStr"/>
+      <c r="R378" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -22441,7 +23201,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
-      <c r="R379" t="inlineStr"/>
+      <c r="R379" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -22499,7 +23261,9 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
-      <c r="R380" t="inlineStr"/>
+      <c r="R380" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -22557,7 +23321,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
-      <c r="R381" t="inlineStr"/>
+      <c r="R381" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -22615,7 +23381,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
-      <c r="R382" t="inlineStr"/>
+      <c r="R382" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -22673,7 +23441,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
-      <c r="R383" t="inlineStr"/>
+      <c r="R383" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -22731,7 +23501,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
-      <c r="R384" t="inlineStr"/>
+      <c r="R384" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -22789,7 +23561,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
-      <c r="R385" t="inlineStr"/>
+      <c r="R385" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -22847,7 +23621,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
-      <c r="R386" t="inlineStr"/>
+      <c r="R386" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -22905,7 +23681,9 @@
       <c r="Q387" t="n">
         <v>0</v>
       </c>
-      <c r="R387" t="inlineStr"/>
+      <c r="R387" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -22963,7 +23741,9 @@
       <c r="Q388" t="n">
         <v>0</v>
       </c>
-      <c r="R388" t="inlineStr"/>
+      <c r="R388" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -23021,7 +23801,9 @@
       <c r="Q389" t="n">
         <v>0</v>
       </c>
-      <c r="R389" t="inlineStr"/>
+      <c r="R389" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -23079,7 +23861,9 @@
       <c r="Q390" t="n">
         <v>0</v>
       </c>
-      <c r="R390" t="inlineStr"/>
+      <c r="R390" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -23137,7 +23921,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
-      <c r="R391" t="inlineStr"/>
+      <c r="R391" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -23195,7 +23981,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
-      <c r="R392" t="inlineStr"/>
+      <c r="R392" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -23253,7 +24041,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
-      <c r="R393" t="inlineStr"/>
+      <c r="R393" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -23311,7 +24101,9 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
-      <c r="R394" t="inlineStr"/>
+      <c r="R394" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -23369,7 +24161,9 @@
       <c r="Q395" t="n">
         <v>0</v>
       </c>
-      <c r="R395" t="inlineStr"/>
+      <c r="R395" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -23427,7 +24221,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
-      <c r="R396" t="inlineStr"/>
+      <c r="R396" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -23485,7 +24281,9 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
-      <c r="R397" t="inlineStr"/>
+      <c r="R397" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -23543,7 +24341,9 @@
       <c r="Q398" t="n">
         <v>0</v>
       </c>
-      <c r="R398" t="inlineStr"/>
+      <c r="R398" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -23601,7 +24401,9 @@
       <c r="Q399" t="n">
         <v>0</v>
       </c>
-      <c r="R399" t="inlineStr"/>
+      <c r="R399" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -23659,7 +24461,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
-      <c r="R400" t="inlineStr"/>
+      <c r="R400" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -23717,7 +24521,9 @@
       <c r="Q401" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R401" t="inlineStr"/>
+      <c r="R401" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -23775,7 +24581,9 @@
       <c r="Q402" t="n">
         <v>0.00127</v>
       </c>
-      <c r="R402" t="inlineStr"/>
+      <c r="R402" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -23833,7 +24641,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
-      <c r="R403" t="inlineStr"/>
+      <c r="R403" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -23891,7 +24701,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
-      <c r="R404" t="inlineStr"/>
+      <c r="R404" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -23949,7 +24761,9 @@
       <c r="Q405" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R405" t="inlineStr"/>
+      <c r="R405" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -24007,7 +24821,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
-      <c r="R406" t="inlineStr"/>
+      <c r="R406" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -24065,7 +24881,9 @@
       <c r="Q407" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R407" t="inlineStr"/>
+      <c r="R407" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -24123,7 +24941,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
-      <c r="R408" t="inlineStr"/>
+      <c r="R408" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -24181,7 +25001,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
-      <c r="R409" t="inlineStr"/>
+      <c r="R409" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -24239,7 +25061,9 @@
       <c r="Q410" t="n">
         <v>0</v>
       </c>
-      <c r="R410" t="inlineStr"/>
+      <c r="R410" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -24297,7 +25121,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
-      <c r="R411" t="inlineStr"/>
+      <c r="R411" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -24355,7 +25181,9 @@
       <c r="Q412" t="n">
         <v>0</v>
       </c>
-      <c r="R412" t="inlineStr"/>
+      <c r="R412" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -24413,7 +25241,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
-      <c r="R413" t="inlineStr"/>
+      <c r="R413" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -24471,7 +25301,9 @@
       <c r="Q414" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R414" t="inlineStr"/>
+      <c r="R414" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -24529,7 +25361,9 @@
       <c r="Q415" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R415" t="inlineStr"/>
+      <c r="R415" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -24587,7 +25421,9 @@
       <c r="Q416" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R416" t="inlineStr"/>
+      <c r="R416" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -24645,7 +25481,9 @@
       <c r="Q417" t="n">
         <v>0</v>
       </c>
-      <c r="R417" t="inlineStr"/>
+      <c r="R417" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -24703,7 +25541,9 @@
       <c r="Q418" t="n">
         <v>0</v>
       </c>
-      <c r="R418" t="inlineStr"/>
+      <c r="R418" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -24761,7 +25601,9 @@
       <c r="Q419" t="n">
         <v>0</v>
       </c>
-      <c r="R419" t="inlineStr"/>
+      <c r="R419" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -24819,7 +25661,9 @@
       <c r="Q420" t="n">
         <v>0</v>
       </c>
-      <c r="R420" t="inlineStr"/>
+      <c r="R420" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -24877,7 +25721,9 @@
       <c r="Q421" t="n">
         <v>0</v>
       </c>
-      <c r="R421" t="inlineStr"/>
+      <c r="R421" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -24935,7 +25781,9 @@
       <c r="Q422" t="n">
         <v>0</v>
       </c>
-      <c r="R422" t="inlineStr"/>
+      <c r="R422" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -24993,7 +25841,9 @@
       <c r="Q423" t="n">
         <v>0</v>
       </c>
-      <c r="R423" t="inlineStr"/>
+      <c r="R423" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -25051,7 +25901,9 @@
       <c r="Q424" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R424" t="inlineStr"/>
+      <c r="R424" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -25109,7 +25961,9 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
-      <c r="R425" t="inlineStr"/>
+      <c r="R425" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -25167,7 +26021,9 @@
       <c r="Q426" t="n">
         <v>0</v>
       </c>
-      <c r="R426" t="inlineStr"/>
+      <c r="R426" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -25225,7 +26081,9 @@
       <c r="Q427" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R427" t="inlineStr"/>
+      <c r="R427" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -25283,7 +26141,9 @@
       <c r="Q428" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R428" t="inlineStr"/>
+      <c r="R428" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -25341,7 +26201,9 @@
       <c r="Q429" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R429" t="inlineStr"/>
+      <c r="R429" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -25399,7 +26261,9 @@
       <c r="Q430" t="n">
         <v>0</v>
       </c>
-      <c r="R430" t="inlineStr"/>
+      <c r="R430" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -25457,7 +26321,9 @@
       <c r="Q431" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R431" t="inlineStr"/>
+      <c r="R431" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -25515,7 +26381,9 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
-      <c r="R432" t="inlineStr"/>
+      <c r="R432" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -25573,7 +26441,9 @@
       <c r="Q433" t="n">
         <v>0.008889999999999999</v>
       </c>
-      <c r="R433" t="inlineStr"/>
+      <c r="R433" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -25631,7 +26501,9 @@
       <c r="Q434" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R434" t="inlineStr"/>
+      <c r="R434" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -25689,7 +26561,9 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
-      <c r="R435" t="inlineStr"/>
+      <c r="R435" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -25747,7 +26621,9 @@
       <c r="Q436" t="n">
         <v>0</v>
       </c>
-      <c r="R436" t="inlineStr"/>
+      <c r="R436" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -25805,7 +26681,9 @@
       <c r="Q437" t="n">
         <v>0</v>
       </c>
-      <c r="R437" t="inlineStr"/>
+      <c r="R437" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -25863,7 +26741,9 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
-      <c r="R438" t="inlineStr"/>
+      <c r="R438" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -25921,7 +26801,9 @@
       <c r="Q439" t="n">
         <v>0</v>
       </c>
-      <c r="R439" t="inlineStr"/>
+      <c r="R439" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -25979,7 +26861,9 @@
       <c r="Q440" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R440" t="inlineStr"/>
+      <c r="R440" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -26037,7 +26921,9 @@
       <c r="Q441" t="n">
         <v>0.004318</v>
       </c>
-      <c r="R441" t="inlineStr"/>
+      <c r="R441" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -26095,7 +26981,9 @@
       <c r="Q442" t="n">
         <v>0.003048</v>
       </c>
-      <c r="R442" t="inlineStr"/>
+      <c r="R442" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -26153,7 +27041,9 @@
       <c r="Q443" t="n">
         <v>0</v>
       </c>
-      <c r="R443" t="inlineStr"/>
+      <c r="R443" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -26211,7 +27101,9 @@
       <c r="Q444" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R444" t="inlineStr"/>
+      <c r="R444" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
